--- a/pred_ohlcv/54_21/2020-01-21 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 ZEC ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>20.06399999999998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>87.72759999999998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>58.83269999999998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>52.57789999999998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>50.83849999999997</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>57.83809999999998</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>45.83809999999998</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>30.83809999999998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>31.66709999999998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>24.68149999999997</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>8.649399999999975</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-50.05060000000003</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-158.9272</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-191.6897</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-191.1287</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-191.358</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-190.708</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-209.5896</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-196.4896</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-197.0181</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-196.5492</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-193.3828</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-112.6207</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-111.7943</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-111.7943</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-111.7943</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-162.8438</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-237.4502</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-237.4436</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-237.4436</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-972.8411706500004</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-972.8235706500004</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-982.8284706500004</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-980.7831706500004</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-980.7831706500004</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-969.7701706500005</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-954.0453706500006</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 ZEC ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>20.06399999999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>87.72759999999998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>58.83269999999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>52.57789999999998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>50.83849999999997</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>59.28819999999997</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>57.83809999999998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>45.83809999999998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>31.66709999999998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>22.84249999999998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>24.68149999999997</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>8.649399999999975</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-50.05060000000003</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-158.9272</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-191.6897</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-191.358</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-190.708</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-209.5896</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-196.4896</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-196.4481</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-196.5492</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-193.3828</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-112.6207</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-112.6207</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-111.7943</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-111.7943</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-111.7943</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-162.8438</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-237.4502</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-236.6236</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-237.4436</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-237.4436</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-972.8411706500004</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-972.8235706500004</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-982.8284706500004</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-980.7831706500004</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-980.7831706500004</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-969.5794706500005</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-969.7701706500005</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-954.0453706500006</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
